--- a/N 8428 BF PUR.xlsx
+++ b/N 8428 BF PUR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>21/03/2024</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,23 +1153,49 @@
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1">
+        <v>303020</v>
+      </c>
+      <c r="F25" s="1">
+        <f>7000+E25</f>
+        <v>310020</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1">
+        <v>303020</v>
+      </c>
+      <c r="F26" s="1">
+        <f>10000+E26</f>
+        <v>313020</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
